--- a/model/UnmetDemand/Output Files/Output_6_41.xlsx
+++ b/model/UnmetDemand/Output Files/Output_6_41.xlsx
@@ -501,49 +501,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2360228.238128281</v>
+        <v>2382381.512033489</v>
       </c>
       <c r="C2" t="n">
-        <v>2360228.238128282</v>
+        <v>2382381.51203349</v>
       </c>
       <c r="D2" t="n">
-        <v>2360228.238128282</v>
+        <v>2382381.51203349</v>
       </c>
       <c r="E2" t="n">
-        <v>2327583.825187099</v>
+        <v>2378643.143414264</v>
       </c>
       <c r="F2" t="n">
-        <v>2327583.825187099</v>
+        <v>2378643.143414169</v>
       </c>
       <c r="G2" t="n">
-        <v>2360666.340086134</v>
+        <v>2379280.312780641</v>
       </c>
       <c r="H2" t="n">
-        <v>2360666.340086134</v>
+        <v>2379280.31278064</v>
       </c>
       <c r="I2" t="n">
-        <v>2360666.340086132</v>
+        <v>2379280.31278064</v>
       </c>
       <c r="J2" t="n">
-        <v>2318930.797750987</v>
+        <v>2369516.562799168</v>
       </c>
       <c r="K2" t="n">
-        <v>2318930.797750987</v>
+        <v>2369516.562799216</v>
       </c>
       <c r="L2" t="n">
-        <v>2372067.023311467</v>
+        <v>2380121.370925616</v>
       </c>
       <c r="M2" t="n">
-        <v>2372067.023311466</v>
+        <v>2380121.370925616</v>
       </c>
       <c r="N2" t="n">
-        <v>2372067.023311466</v>
+        <v>2380121.370925616</v>
       </c>
       <c r="O2" t="n">
-        <v>2275993.589381436</v>
+        <v>2371513.38815384</v>
       </c>
       <c r="P2" t="n">
-        <v>2275993.589381438</v>
+        <v>2371513.38815384</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311200</v>
+        <v>386336</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -562,13 +562,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>279200</v>
+        <v>296256.0000000416</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-8.951563415428003e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>352800</v>
+        <v>383200.0000000165</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>229600</v>
+        <v>259168.0000001072</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>426400</v>
+        <v>419199.9999999253</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>121600</v>
+        <v>220224.0000000741</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -605,49 +605,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>989986.302122985</v>
+        <v>1003077.04784786</v>
       </c>
       <c r="C4" t="n">
-        <v>986484.1808234395</v>
+        <v>999526.7733139396</v>
       </c>
       <c r="D4" t="n">
-        <v>982977.308677764</v>
+        <v>995971.6826111857</v>
       </c>
       <c r="E4" t="n">
-        <v>961438.6324056988</v>
+        <v>995914.1060223153</v>
       </c>
       <c r="F4" t="n">
-        <v>957995.639802295</v>
+        <v>992369.5408180736</v>
       </c>
       <c r="G4" t="n">
-        <v>972667.8067542446</v>
+        <v>988683.8692001463</v>
       </c>
       <c r="H4" t="n">
-        <v>969140.6031273397</v>
+        <v>985127.0170566995</v>
       </c>
       <c r="I4" t="n">
-        <v>965608.475466922</v>
+        <v>981565.1994899294</v>
       </c>
       <c r="J4" t="n">
-        <v>939495.0672316748</v>
+        <v>977355.6671273895</v>
       </c>
       <c r="K4" t="n">
-        <v>936047.5876256308</v>
+        <v>973815.7769180909</v>
       </c>
       <c r="L4" t="n">
-        <v>961097.5244457955</v>
+        <v>970442.5821359749</v>
       </c>
       <c r="M4" t="n">
-        <v>957519.4225319371</v>
+        <v>966856.8090944856</v>
       </c>
       <c r="N4" t="n">
-        <v>953936.1759025124</v>
+        <v>963265.880307624</v>
       </c>
       <c r="O4" t="n">
-        <v>899470.0071459827</v>
+        <v>959922.7695882269</v>
       </c>
       <c r="P4" t="n">
-        <v>896095.6992669747</v>
+        <v>956351.2323948235</v>
       </c>
     </row>
     <row r="5">
@@ -657,49 +657,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66330.44099999999</v>
+        <v>74654.77499999999</v>
       </c>
       <c r="C5" t="n">
-        <v>66330.44100000001</v>
+        <v>74654.77499999999</v>
       </c>
       <c r="D5" t="n">
-        <v>66330.44100000001</v>
+        <v>74654.77499999999</v>
       </c>
       <c r="E5" t="n">
-        <v>62042.922</v>
+        <v>73421.51800000216</v>
       </c>
       <c r="F5" t="n">
-        <v>62042.922</v>
+        <v>73421.51799999262</v>
       </c>
       <c r="G5" t="n">
-        <v>66414.51000000001</v>
+        <v>73757.79399999435</v>
       </c>
       <c r="H5" t="n">
-        <v>66414.51000000001</v>
+        <v>73757.79399999435</v>
       </c>
       <c r="I5" t="n">
-        <v>66414.51000000001</v>
+        <v>73757.79399999435</v>
       </c>
       <c r="J5" t="n">
-        <v>61202.232</v>
+        <v>72630.372</v>
       </c>
       <c r="K5" t="n">
-        <v>61202.232</v>
+        <v>72630.37200000958</v>
       </c>
       <c r="L5" t="n">
-        <v>68936.58</v>
+        <v>76413.477</v>
       </c>
       <c r="M5" t="n">
-        <v>68936.58</v>
+        <v>76413.477</v>
       </c>
       <c r="N5" t="n">
-        <v>68936.58</v>
+        <v>75319.077</v>
       </c>
       <c r="O5" t="n">
-        <v>57587.265</v>
+        <v>72769.9859999999</v>
       </c>
       <c r="P5" t="n">
-        <v>57587.265</v>
+        <v>72769.9859999999</v>
       </c>
     </row>
     <row r="6">
@@ -709,49 +709,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>992670.2230032615</v>
+        <v>918300.1595909246</v>
       </c>
       <c r="C6" t="n">
-        <v>1307372.344302807</v>
+        <v>1308186.434124846</v>
       </c>
       <c r="D6" t="n">
-        <v>1310879.216448483</v>
+        <v>1311741.5248276</v>
       </c>
       <c r="E6" t="n">
-        <v>1024825.263526826</v>
+        <v>1013033.016873444</v>
       </c>
       <c r="F6" t="n">
-        <v>1307468.25613023</v>
+        <v>1312833.582077733</v>
       </c>
       <c r="G6" t="n">
-        <v>968743.2540328959</v>
+        <v>933620.9470620225</v>
       </c>
       <c r="H6" t="n">
-        <v>1325070.457659801</v>
+        <v>1320377.799205485</v>
       </c>
       <c r="I6" t="n">
-        <v>1328602.585320217</v>
+        <v>1323939.616772256</v>
       </c>
       <c r="J6" t="n">
-        <v>1088547.051204835</v>
+        <v>1060333.564280756</v>
       </c>
       <c r="K6" t="n">
-        <v>1321594.530810878</v>
+        <v>1323041.4544902</v>
       </c>
       <c r="L6" t="n">
-        <v>915605.8241469532</v>
+        <v>914048.6476383351</v>
       </c>
       <c r="M6" t="n">
-        <v>1345583.926060811</v>
+        <v>1336834.42067975</v>
       </c>
       <c r="N6" t="n">
-        <v>1349167.172690236</v>
+        <v>1341519.749466612</v>
       </c>
       <c r="O6" t="n">
-        <v>1197203.315161756</v>
+        <v>1118569.839491046</v>
       </c>
       <c r="P6" t="n">
-        <v>1322177.623040766</v>
+        <v>1342365.376684523</v>
       </c>
     </row>
   </sheetData>
@@ -854,76 +854,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>14.4558748279538</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>32.2758748279538</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>32.2758748279538</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.2758748279538</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32.2758748279538</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14.84995882995089</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="3">
@@ -933,76 +933,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="4">
@@ -1012,76 +1012,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="5">
@@ -1091,76 +1091,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>14.45587482795498</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.45587482795498</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>32.27587482795498</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.27587482795498</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>32.27587482795498</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>32.27587482795498</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>14.84995882995207</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
@@ -1170,76 +1170,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="7">
@@ -1249,76 +1249,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="8">
@@ -1328,76 +1328,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>32.22000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>32.27587482795499</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>32.27587482795499</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.27587482795499</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>32.27587482795499</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>14.84995882995208</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="9">
@@ -1407,76 +1407,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10">
@@ -1486,76 +1486,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="11">
@@ -1565,76 +1565,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>73.75546379041462</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>144.0454637903225</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>214.3354637902304</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>214.3354637902304</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>214.3354637902304</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.3354637902304</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>143.3741942569679</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>89.3888818917562</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="12">
@@ -1644,76 +1644,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="13">
@@ -1723,76 +1723,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="14">
@@ -1802,76 +1802,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>73.75546379055071</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>144.0454637904586</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>214.3354637903665</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>214.3354637903665</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>214.3354637903665</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.3354637903665</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>143.3741942570601</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>89.38888189180109</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="15">
@@ -1881,76 +1881,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="16">
@@ -1960,76 +1960,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="17">
@@ -2039,76 +2039,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>61.63425166948433</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>131.9242516693922</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>135.2933861763477</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>85.34847785144609</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="18">
@@ -2118,76 +2118,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="19">
@@ -2197,76 +2197,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="20">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>61.63425166948433</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>131.9242516693922</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>135.2933861763477</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>85.34847785144609</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="21">
@@ -2355,76 +2355,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="22">
@@ -2434,76 +2434,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="23">
@@ -2513,76 +2513,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>61.63425166948433</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>131.9242516693922</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>202.2142516693001</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>135.2933861763477</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>85.34847785144609</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="24">
@@ -2592,76 +2592,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="25">
@@ -2671,76 +2671,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>56.79999999992557</v>
       </c>
     </row>
     <row r="26">
@@ -2750,76 +2750,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>136.6657668208892</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>240.615766820889</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>344.5657668208888</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>344.5657668208888</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>344.5657668208888</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>344.5657668208888</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>239.2610629440982</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>150.9323162353585</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="27">
@@ -2829,76 +2829,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="28">
@@ -2908,76 +2908,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="29">
@@ -2987,76 +2987,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>136.6657668205444</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>136.6657668205444</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>240.6157668205441</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>344.5657668205439</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>344.5657668205439</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>344.5657668205439</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>344.5657668205439</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>239.2610629438683</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>150.9323162352435</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="30">
@@ -3066,76 +3066,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="31">
@@ -3145,76 +3145,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="32">
@@ -3224,76 +3224,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>104.252130457253</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>148.3519720350075</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>105.4777707808132</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="33">
@@ -3303,76 +3303,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="34">
@@ -3382,76 +3382,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="35">
@@ -3461,76 +3461,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>104.252130457253</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.2021304572527</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>148.3519720350075</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>105.4777707808132</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="36">
@@ -3540,76 +3540,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="37">
@@ -3619,76 +3619,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>83.99999999999983</v>
       </c>
     </row>
     <row r="38">
@@ -3698,76 +3698,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>107.672130457253</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>193.8021304572528</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>193.8021304572528</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>193.8021304572528</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>193.8021304572528</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>133.9519720350075</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>91.07777078081315</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
     </row>
     <row r="39">
@@ -3777,76 +3777,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
     </row>
     <row r="40">
@@ -3856,76 +3856,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>69.59999999999982</v>
       </c>
     </row>
     <row r="41">
@@ -3935,76 +3935,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>125.5639486390731</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>223.5739486390709</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>321.5839486390686</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>321.5839486390686</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>321.5839486390686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>321.5839486390686</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>222.3398508228842</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>140.0717101747507</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
     </row>
     <row r="42">
@@ -4014,76 +4014,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
     </row>
     <row r="43">
@@ -4093,76 +4093,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
     </row>
     <row r="44">
@@ -4172,76 +4172,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>177.2099999999959</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>223.5739486390713</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>321.583948639069</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>321.583948639069</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>321.583948639069</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>321.583948639069</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>222.3398508228845</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>140.0717101747508</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
     </row>
     <row r="45">
@@ -4251,76 +4251,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
     </row>
     <row r="46">
@@ -4330,76 +4330,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>79.1999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -4544,10 +4544,10 @@
         <v>660.4</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7900000000001</v>
+        <v>605.8464392201554</v>
       </c>
       <c r="Q2" t="n">
-        <v>602.615</v>
+        <v>620.615</v>
       </c>
       <c r="R2" t="n">
         <v>484.6236099125817</v>
@@ -4629,7 +4629,7 @@
         <v>508</v>
       </c>
       <c r="R3" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445815108</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4681,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989831209</v>
       </c>
       <c r="J4" t="n">
-        <v>595.513356752228</v>
+        <v>595.5133567508796</v>
       </c>
       <c r="K4" t="n">
         <v>739.775</v>
@@ -4705,7 +4705,7 @@
         <v>650.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468607695</v>
       </c>
       <c r="R4" t="n">
         <v>76.79687323758844</v>
@@ -4778,13 +4778,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>660.4</v>
+        <v>660.4564392201565</v>
       </c>
       <c r="P5" t="n">
         <v>605.7900000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>602.615</v>
+        <v>620.615</v>
       </c>
       <c r="R5" t="n">
         <v>484.6236099125817</v>
@@ -5018,10 +5018,10 @@
         <v>660.4</v>
       </c>
       <c r="P8" t="n">
-        <v>605.7900000000001</v>
+        <v>623.7900000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>602.615</v>
+        <v>602.6714392201566</v>
       </c>
       <c r="R8" t="n">
         <v>484.6236099125817</v>
@@ -5252,13 +5252,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>660.4</v>
+        <v>677.5267311015041</v>
       </c>
       <c r="P11" t="n">
-        <v>605.7900000000001</v>
+        <v>676.7899999999071</v>
       </c>
       <c r="Q11" t="n">
-        <v>602.615</v>
+        <v>673.614999999907</v>
       </c>
       <c r="R11" t="n">
         <v>484.6236099125817</v>
@@ -5489,13 +5489,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>660.4</v>
+        <v>677.5267311016415</v>
       </c>
       <c r="P14" t="n">
-        <v>605.7900000000001</v>
+        <v>676.7899999999071</v>
       </c>
       <c r="Q14" t="n">
-        <v>602.615</v>
+        <v>673.614999999907</v>
       </c>
       <c r="R14" t="n">
         <v>484.6236099125817</v>
@@ -5653,7 +5653,7 @@
         <v>650.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468606678</v>
       </c>
       <c r="R16" t="n">
         <v>76.79687323758844</v>
@@ -5726,13 +5726,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>660.4</v>
+        <v>665.2830824945038</v>
       </c>
       <c r="P17" t="n">
-        <v>605.7900000000001</v>
+        <v>676.7899999999071</v>
       </c>
       <c r="Q17" t="n">
-        <v>602.615</v>
+        <v>673.614999999907</v>
       </c>
       <c r="R17" t="n">
         <v>484.6236099125817</v>
@@ -5963,13 +5963,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>660.4</v>
+        <v>665.2830824945038</v>
       </c>
       <c r="P20" t="n">
-        <v>605.7900000000001</v>
+        <v>676.7899999999071</v>
       </c>
       <c r="Q20" t="n">
-        <v>602.615</v>
+        <v>673.614999999907</v>
       </c>
       <c r="R20" t="n">
         <v>484.6236099125817</v>
@@ -6200,13 +6200,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>660.4</v>
+        <v>665.2830824945038</v>
       </c>
       <c r="P23" t="n">
-        <v>605.7900000000001</v>
+        <v>676.7899999999071</v>
       </c>
       <c r="Q23" t="n">
-        <v>602.615</v>
+        <v>673.614999999907</v>
       </c>
       <c r="R23" t="n">
         <v>484.6236099125817</v>
@@ -6437,13 +6437,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>660.4</v>
+        <v>713.5977442635246</v>
       </c>
       <c r="P26" t="n">
-        <v>605.7900000000001</v>
+        <v>710.7899999999998</v>
       </c>
       <c r="Q26" t="n">
-        <v>602.615</v>
+        <v>707.6149999999998</v>
       </c>
       <c r="R26" t="n">
         <v>484.6236099125817</v>
@@ -6656,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>127.0770335365087</v>
+        <v>127.077033533396</v>
       </c>
       <c r="J29" t="n">
-        <v>500.1104761575116</v>
+        <v>500.1104761563469</v>
       </c>
       <c r="K29" t="n">
         <v>720.725</v>
@@ -6671,16 +6671,16 @@
         <v>680.72</v>
       </c>
       <c r="N29" t="n">
-        <v>676.9100000000001</v>
+        <v>730.1077442631764</v>
       </c>
       <c r="O29" t="n">
         <v>660.4</v>
       </c>
       <c r="P29" t="n">
-        <v>605.7900000000001</v>
+        <v>710.7899999999998</v>
       </c>
       <c r="Q29" t="n">
-        <v>602.615</v>
+        <v>707.6149999999998</v>
       </c>
       <c r="R29" t="n">
         <v>484.6236099125817</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>142.5427265359322</v>
+        <v>142.5427265327423</v>
       </c>
       <c r="J30" t="n">
         <v>508</v>
@@ -6762,7 +6762,7 @@
         <v>508</v>
       </c>
       <c r="R30" t="n">
-        <v>253.8283445833949</v>
+        <v>253.8283445815108</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -6814,10 +6814,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989831209</v>
       </c>
       <c r="J31" t="n">
-        <v>595.513356752228</v>
+        <v>595.5133567508796</v>
       </c>
       <c r="K31" t="n">
         <v>739.775</v>
@@ -6838,7 +6838,7 @@
         <v>650.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468607695</v>
       </c>
       <c r="R31" t="n">
         <v>76.79687323758844</v>
@@ -6914,10 +6914,10 @@
         <v>660.4</v>
       </c>
       <c r="P32" t="n">
-        <v>605.7900000000001</v>
+        <v>626.2466974315689</v>
       </c>
       <c r="Q32" t="n">
-        <v>602.615</v>
+        <v>707.6149999999998</v>
       </c>
       <c r="R32" t="n">
         <v>484.6236099125817</v>
@@ -7151,10 +7151,10 @@
         <v>660.4</v>
       </c>
       <c r="P35" t="n">
-        <v>605.7900000000001</v>
+        <v>626.2466974315689</v>
       </c>
       <c r="Q35" t="n">
-        <v>602.615</v>
+        <v>707.6149999999998</v>
       </c>
       <c r="R35" t="n">
         <v>484.6236099125817</v>
@@ -7388,10 +7388,10 @@
         <v>660.4</v>
       </c>
       <c r="P38" t="n">
-        <v>605.7900000000001</v>
+        <v>644.2466974315689</v>
       </c>
       <c r="Q38" t="n">
-        <v>602.615</v>
+        <v>689.6149999999998</v>
       </c>
       <c r="R38" t="n">
         <v>484.6236099125817</v>
@@ -7622,13 +7622,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>660.4</v>
+        <v>707.2322713526009</v>
       </c>
       <c r="P41" t="n">
-        <v>605.7900000000001</v>
+        <v>704.7899999999978</v>
       </c>
       <c r="Q41" t="n">
-        <v>602.615</v>
+        <v>701.6149999999977</v>
       </c>
       <c r="R41" t="n">
         <v>484.6236099125817</v>
@@ -7859,13 +7859,13 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4</v>
+        <v>759.3999999999977</v>
       </c>
       <c r="P44" t="n">
-        <v>605.7900000000001</v>
+        <v>652.6222713526014</v>
       </c>
       <c r="Q44" t="n">
-        <v>602.615</v>
+        <v>701.6149999999977</v>
       </c>
       <c r="R44" t="n">
         <v>484.6236099125817</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>262.7824989850633</v>
+        <v>262.7824989831209</v>
       </c>
       <c r="J46" t="n">
         <v>595.513356752228</v>
@@ -8023,7 +8023,7 @@
         <v>650.24</v>
       </c>
       <c r="Q46" t="n">
-        <v>398.1032468631165</v>
+        <v>398.1032468607696</v>
       </c>
       <c r="R46" t="n">
         <v>76.79687323758844</v>
@@ -19094,7 +19094,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -19148,19 +19148,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>83.91550157481367</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V2" t="n">
-        <v>183.7171769351695</v>
+        <v>97.27171769351813</v>
       </c>
       <c r="W2" t="n">
-        <v>160.1811034144504</v>
+        <v>74.18110341445038</v>
       </c>
       <c r="X2" t="n">
-        <v>46.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -19306,16 +19306,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05406083153820873</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>32.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>43.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>30.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -19331,7 +19331,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -19385,19 +19385,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>83.91550157481367</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>202.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V5" t="n">
-        <v>183.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W5" t="n">
-        <v>160.1811034144504</v>
+        <v>74.18110341445038</v>
       </c>
       <c r="X5" t="n">
-        <v>46.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>4.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -19543,16 +19543,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05406083153820873</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>32.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>43.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>30.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -19568,7 +19568,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -19622,19 +19622,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>83.91550157481367</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V8" t="n">
-        <v>183.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W8" t="n">
-        <v>160.1811034144504</v>
+        <v>74.18110341445038</v>
       </c>
       <c r="X8" t="n">
-        <v>46.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -19780,16 +19780,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05406083153820873</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>32.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>43.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>30.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -19805,10 +19805,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.10374500282978</v>
+        <v>4.103745002736787</v>
       </c>
       <c r="C11" t="n">
-        <v>42.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>13.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -19859,22 +19859,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>134.9155015748137</v>
+        <v>50.91550157472068</v>
       </c>
       <c r="U11" t="n">
-        <v>253.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V11" t="n">
-        <v>234.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W11" t="n">
-        <v>211.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X11" t="n">
-        <v>97.03862501414824</v>
+        <v>13.03862501405524</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -19941,13 +19941,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>50.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>33.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -20017,19 +20017,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>51.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>94.66359660826174</v>
+        <v>10.66359660816875</v>
       </c>
       <c r="W13" t="n">
-        <v>81.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.599086562244224</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -20042,10 +20042,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.10374500282978</v>
+        <v>4.103745002791584</v>
       </c>
       <c r="C14" t="n">
-        <v>42.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>13.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -20096,22 +20096,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>134.9155015748137</v>
+        <v>50.915501574779</v>
       </c>
       <c r="U14" t="n">
-        <v>253.3907298200254</v>
+        <v>99.1390729819947</v>
       </c>
       <c r="V14" t="n">
-        <v>234.7171769351695</v>
+        <v>97.2717176935095</v>
       </c>
       <c r="W14" t="n">
-        <v>211.1811034144504</v>
+        <v>94.91811034143734</v>
       </c>
       <c r="X14" t="n">
-        <v>97.03862501414824</v>
+        <v>13.03862501409606</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -20178,13 +20178,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>55.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>50.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>33.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -20254,19 +20254,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>51.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>83.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>94.66359660826174</v>
+        <v>10.66359660826163</v>
       </c>
       <c r="W16" t="n">
-        <v>81.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.599086562244224</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.10374500282978</v>
+        <v>0.1037450028297687</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -20333,19 +20333,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>82.91550157481367</v>
+        <v>46.91550157481367</v>
       </c>
       <c r="U17" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V17" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X17" t="n">
-        <v>45.03862501414824</v>
+        <v>9.038625014148238</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -20415,7 +20415,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -20494,13 +20494,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>42.66359660826174</v>
+        <v>6.663596608261741</v>
       </c>
       <c r="W19" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -20516,7 +20516,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.10374500282978</v>
+        <v>0.1037450028297826</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -20570,19 +20570,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>82.91550157481367</v>
+        <v>46.91550157481367</v>
       </c>
       <c r="U20" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V20" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X20" t="n">
-        <v>45.03862501414824</v>
+        <v>9.038625014148238</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -20652,7 +20652,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -20731,13 +20731,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>42.66359660826174</v>
+        <v>6.663596608261741</v>
       </c>
       <c r="W22" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -20753,7 +20753,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.10374500282978</v>
+        <v>0.1037450028297687</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -20807,19 +20807,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>82.91550157481367</v>
+        <v>46.91550157481367</v>
       </c>
       <c r="U23" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V23" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X23" t="n">
-        <v>45.03862501414824</v>
+        <v>9.038625014148238</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -20889,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -20968,13 +20968,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>42.66359660826174</v>
+        <v>6.663596608261741</v>
       </c>
       <c r="W25" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -20990,10 +20990,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.10374500282978</v>
+        <v>38.10374500282956</v>
       </c>
       <c r="C26" t="n">
-        <v>52.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -21008,7 +21008,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>23.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -21044,22 +21044,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>144.9155015748137</v>
+        <v>84.91550157481345</v>
       </c>
       <c r="U26" t="n">
-        <v>263.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V26" t="n">
-        <v>244.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W26" t="n">
-        <v>221.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X26" t="n">
-        <v>107.0386250141482</v>
+        <v>47.03862501414801</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -21126,13 +21126,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>65.56438083919682</v>
+        <v>5.564380839196588</v>
       </c>
       <c r="V27" t="n">
-        <v>60.70788677171572</v>
+        <v>0.7078867717154935</v>
       </c>
       <c r="W27" t="n">
-        <v>43.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -21148,7 +21148,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.320438213474063</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -21202,22 +21202,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>61.05406083153821</v>
+        <v>1.054060831537981</v>
       </c>
       <c r="U28" t="n">
-        <v>93.88389599637321</v>
+        <v>33.88389599637298</v>
       </c>
       <c r="V28" t="n">
-        <v>104.6635966082617</v>
+        <v>44.66359660826151</v>
       </c>
       <c r="W28" t="n">
-        <v>91.92722465814359</v>
+        <v>31.92722465814336</v>
       </c>
       <c r="X28" t="n">
-        <v>12.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.480759853695758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -21227,10 +21227,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.10374500282978</v>
+        <v>38.10374500271575</v>
       </c>
       <c r="C29" t="n">
-        <v>52.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -21245,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>23.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -21281,22 +21281,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>144.9155015748137</v>
+        <v>84.91550157469965</v>
       </c>
       <c r="U29" t="n">
-        <v>263.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V29" t="n">
-        <v>244.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W29" t="n">
-        <v>221.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X29" t="n">
-        <v>107.0386250141482</v>
+        <v>47.03862501403421</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -21363,13 +21363,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>65.56438083919682</v>
+        <v>5.564380839082787</v>
       </c>
       <c r="V30" t="n">
-        <v>60.70788677171572</v>
+        <v>0.7078867716403465</v>
       </c>
       <c r="W30" t="n">
-        <v>43.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -21385,7 +21385,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.320438213474063</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -21439,22 +21439,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>61.05406083153821</v>
+        <v>1.054060831424181</v>
       </c>
       <c r="U31" t="n">
-        <v>93.88389599637321</v>
+        <v>33.88389599625918</v>
       </c>
       <c r="V31" t="n">
-        <v>104.6635966082617</v>
+        <v>44.66359660814771</v>
       </c>
       <c r="W31" t="n">
-        <v>91.92722465814359</v>
+        <v>31.92722465802956</v>
       </c>
       <c r="X31" t="n">
-        <v>12.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.480759853695758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -21464,7 +21464,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.103745002829783</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -21518,19 +21518,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>52.91550157481367</v>
+        <v>39.91550157481356</v>
       </c>
       <c r="U32" t="n">
-        <v>171.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V32" t="n">
-        <v>152.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W32" t="n">
-        <v>129.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X32" t="n">
-        <v>15.03862501414824</v>
+        <v>2.038625014148124</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -21679,10 +21679,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.883895996373212</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>12.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -21701,7 +21701,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.103745002829783</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -21755,19 +21755,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>52.91550157481367</v>
+        <v>39.91550157481356</v>
       </c>
       <c r="U35" t="n">
-        <v>171.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V35" t="n">
-        <v>152.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W35" t="n">
-        <v>129.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X35" t="n">
-        <v>15.03862501414824</v>
+        <v>2.038625014148124</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -21916,10 +21916,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.883895996373212</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>12.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -21938,7 +21938,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.103745002829783</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -21992,19 +21992,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>52.91550157481367</v>
+        <v>39.91550157481356</v>
       </c>
       <c r="U38" t="n">
-        <v>171.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V38" t="n">
-        <v>152.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W38" t="n">
-        <v>129.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X38" t="n">
-        <v>15.03862501414824</v>
+        <v>2.038625014148124</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -22153,10 +22153,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.883895996373212</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>12.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -22175,13 +22175,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.1037450028298</v>
+        <v>32.10374500282944</v>
       </c>
       <c r="C41" t="n">
-        <v>95.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>35.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -22190,10 +22190,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>24.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>66.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -22229,22 +22229,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>187.9155015748137</v>
+        <v>78.91550157481333</v>
       </c>
       <c r="U41" t="n">
-        <v>306.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V41" t="n">
-        <v>287.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W41" t="n">
-        <v>264.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X41" t="n">
-        <v>150.0386250141482</v>
+        <v>41.0386250141479</v>
       </c>
       <c r="Y41" t="n">
-        <v>64.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -22308,16 +22308,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>42.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>108.5643808391968</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>103.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>86.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -22333,10 +22333,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>11.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -22387,22 +22387,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>104.0540608315382</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>136.8838959963732</v>
+        <v>27.88389599637287</v>
       </c>
       <c r="V43" t="n">
-        <v>147.6635966082617</v>
+        <v>38.6635966082614</v>
       </c>
       <c r="W43" t="n">
-        <v>134.9272246581436</v>
+        <v>25.92722465814325</v>
       </c>
       <c r="X43" t="n">
-        <v>55.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -22412,13 +22412,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.1037450028298</v>
+        <v>32.10374500282944</v>
       </c>
       <c r="C44" t="n">
-        <v>95.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>35.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -22427,10 +22427,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>24.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>66.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -22466,22 +22466,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.9155015748137</v>
+        <v>78.91550157481345</v>
       </c>
       <c r="U44" t="n">
-        <v>306.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V44" t="n">
-        <v>287.7171769351695</v>
+        <v>97.27171769351693</v>
       </c>
       <c r="W44" t="n">
-        <v>264.1811034144504</v>
+        <v>94.91811034144504</v>
       </c>
       <c r="X44" t="n">
-        <v>150.0386250141482</v>
+        <v>41.0386250141479</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -22545,16 +22545,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>42.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>108.5643808391968</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>103.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>86.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -22570,10 +22570,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>11.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -22624,22 +22624,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>104.0540608315382</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>136.8838959963732</v>
+        <v>27.88389599637287</v>
       </c>
       <c r="V46" t="n">
-        <v>147.6635966082617</v>
+        <v>38.6635966082614</v>
       </c>
       <c r="W46" t="n">
-        <v>134.9272246581436</v>
+        <v>25.92722465814325</v>
       </c>
       <c r="X46" t="n">
-        <v>55.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22885,49 +22885,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C2" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="D2" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="E2" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="F2" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="G2" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="H2" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="I2" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="J2" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="L2" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="P2" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
     </row>
     <row r="3">
@@ -22989,49 +22989,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>86.99999999999977</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>98.99999999999774</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>98.99999999999774</v>
       </c>
     </row>
   </sheetData>
@@ -23107,37 +23107,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>349</v>
+        <v>347.0000000000899</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-1.10561837721616e-10</v>
       </c>
       <c r="G2" t="n">
-        <v>441</v>
+        <v>479.0000000000175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>287</v>
+        <v>309.0000000000924</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>533</v>
+        <v>523.9999999999097</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>152</v>
+        <v>270.0000000000904</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -23198,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -23211,16 +23211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.99999999992117</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.00000000008748</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -23250,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23353,13 +23353,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>347.000000000093</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>441</v>
+        <v>479.0000000000206</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -23368,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>287</v>
+        <v>309.0000000000932</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -23578,7 +23578,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>789</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C2" t="n">
         <v>780.3257817577396</v>
@@ -23632,19 +23632,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T2" t="n">
-        <v>789</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U2" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="V2" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="W2" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="X2" t="n">
-        <v>789</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y2" t="n">
         <v>749.1408669101759</v>
@@ -23705,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554184892</v>
       </c>
       <c r="S3" t="n">
         <v>483.5002940856804</v>
@@ -23714,7 +23714,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U3" t="n">
-        <v>789</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V3" t="n">
         <v>788.7078867717157</v>
@@ -23757,10 +23757,10 @@
         <v>660.9207753695249</v>
       </c>
       <c r="I4" t="n">
-        <v>360.1525010149367</v>
+        <v>360.1525010168791</v>
       </c>
       <c r="J4" t="n">
-        <v>47.74164324777212</v>
+        <v>47.74164324912056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -23781,7 +23781,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531392305</v>
       </c>
       <c r="R4" t="n">
         <v>556.9331267624116</v>
@@ -23790,16 +23790,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T4" t="n">
-        <v>789</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U4" t="n">
-        <v>789</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V4" t="n">
-        <v>789</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W4" t="n">
-        <v>789</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X4" t="n">
         <v>740.5990865622442</v>
@@ -23815,7 +23815,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>789</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C5" t="n">
         <v>780.3257817577396</v>
@@ -23869,19 +23869,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T5" t="n">
-        <v>789</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U5" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="V5" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="W5" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="X5" t="n">
-        <v>789</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y5" t="n">
         <v>749.1408669101759</v>
@@ -23951,7 +23951,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U6" t="n">
-        <v>789</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V6" t="n">
         <v>788.7078867717157</v>
@@ -24027,16 +24027,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T7" t="n">
-        <v>789</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U7" t="n">
-        <v>789</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V7" t="n">
-        <v>789</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W7" t="n">
-        <v>789</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X7" t="n">
         <v>740.5990865622442</v>
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>789</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C8" t="n">
         <v>780.3257817577396</v>
@@ -24106,19 +24106,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T8" t="n">
-        <v>789</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U8" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="V8" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="W8" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="X8" t="n">
-        <v>789</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y8" t="n">
         <v>749.1408669101759</v>
@@ -24188,7 +24188,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U9" t="n">
-        <v>789</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V9" t="n">
         <v>788.7078867717157</v>
@@ -24264,16 +24264,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T10" t="n">
-        <v>789</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U10" t="n">
-        <v>789</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V10" t="n">
-        <v>789</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W10" t="n">
-        <v>789</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X10" t="n">
         <v>740.5990865622442</v>
@@ -24289,10 +24289,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="C11" t="n">
-        <v>738</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D11" t="n">
         <v>720.9289116565008</v>
@@ -24307,7 +24307,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H11" t="n">
-        <v>738</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I11" t="n">
         <v>487.6029664634913</v>
@@ -24343,22 +24343,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T11" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="U11" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="V11" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="W11" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="X11" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="Y11" t="n">
-        <v>738</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="12">
@@ -24425,13 +24425,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U12" t="n">
-        <v>738</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V12" t="n">
-        <v>738</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W12" t="n">
-        <v>738</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X12" t="n">
         <v>675.4238557881962</v>
@@ -24501,19 +24501,19 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T13" t="n">
-        <v>738</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U13" t="n">
-        <v>738</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V13" t="n">
-        <v>738</v>
+        <v>822.000000000093</v>
       </c>
       <c r="W13" t="n">
-        <v>738</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X13" t="n">
-        <v>738</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y13" t="n">
         <v>737.4807598536958</v>
@@ -24526,25 +24526,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="C14" t="n">
-        <v>738</v>
+        <v>780.3257817576837</v>
       </c>
       <c r="D14" t="n">
-        <v>720.9289116565008</v>
+        <v>720.9289116564511</v>
       </c>
       <c r="E14" t="n">
-        <v>683.4770677455434</v>
+        <v>683.4770677454942</v>
       </c>
       <c r="F14" t="n">
-        <v>678.54014870429</v>
+        <v>678.5401487042411</v>
       </c>
       <c r="G14" t="n">
-        <v>709.326661363265</v>
+        <v>709.3266613632154</v>
       </c>
       <c r="H14" t="n">
-        <v>738</v>
+        <v>751.4072647504947</v>
       </c>
       <c r="I14" t="n">
         <v>487.6029664634913</v>
@@ -24580,22 +24580,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T14" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="U14" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="V14" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="W14" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="X14" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="Y14" t="n">
-        <v>738</v>
+        <v>749.1408669101165</v>
       </c>
     </row>
     <row r="15">
@@ -24605,25 +24605,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>643.9170916081518</v>
+        <v>643.9170916081009</v>
       </c>
       <c r="C15" t="n">
-        <v>601.2969412516379</v>
+        <v>601.2969412515897</v>
       </c>
       <c r="D15" t="n">
-        <v>561.4275748088519</v>
+        <v>561.4275748088058</v>
       </c>
       <c r="E15" t="n">
-        <v>527.4264172844714</v>
+        <v>527.426417284426</v>
       </c>
       <c r="F15" t="n">
-        <v>524.3030463988928</v>
+        <v>524.303046398848</v>
       </c>
       <c r="G15" t="n">
-        <v>548.44189690301</v>
+        <v>548.4418969029672</v>
       </c>
       <c r="H15" t="n">
-        <v>609.2052264934215</v>
+        <v>609.2052264933875</v>
       </c>
       <c r="I15" t="n">
         <v>346.4072734640678</v>
@@ -24656,25 +24656,25 @@
         <v>235.1216554166051</v>
       </c>
       <c r="S15" t="n">
-        <v>483.5002940856804</v>
+        <v>483.5002940856785</v>
       </c>
       <c r="T15" t="n">
-        <v>727.2515106360167</v>
+        <v>727.251510635977</v>
       </c>
       <c r="U15" t="n">
-        <v>738</v>
+        <v>793.5643808391483</v>
       </c>
       <c r="V15" t="n">
-        <v>738</v>
+        <v>788.7078867716683</v>
       </c>
       <c r="W15" t="n">
-        <v>738</v>
+        <v>771.5241640362459</v>
       </c>
       <c r="X15" t="n">
-        <v>675.4238557881962</v>
+        <v>675.4238557881454</v>
       </c>
       <c r="Y15" t="n">
-        <v>631.5508133819358</v>
+        <v>631.550813381888</v>
       </c>
     </row>
     <row r="16">
@@ -24684,25 +24684,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>737.3204382134741</v>
+        <v>737.3204382134309</v>
       </c>
       <c r="C16" t="n">
-        <v>696.5881007455363</v>
+        <v>696.5881007454959</v>
       </c>
       <c r="D16" t="n">
-        <v>674.3412379612031</v>
+        <v>674.3412379611606</v>
       </c>
       <c r="E16" t="n">
-        <v>641.2507668233993</v>
+        <v>641.2507668233575</v>
       </c>
       <c r="F16" t="n">
-        <v>637.4009440934956</v>
+        <v>637.400944093455</v>
       </c>
       <c r="G16" t="n">
-        <v>652.9097698053923</v>
+        <v>652.9097698053564</v>
       </c>
       <c r="H16" t="n">
-        <v>660.9207753695249</v>
+        <v>660.9207753695116</v>
       </c>
       <c r="I16" t="n">
         <v>360.1525010149367</v>
@@ -24729,31 +24729,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531393322</v>
       </c>
       <c r="R16" t="n">
         <v>556.9331267624116</v>
       </c>
       <c r="S16" t="n">
-        <v>684.8364784139557</v>
+        <v>684.8364784139395</v>
       </c>
       <c r="T16" t="n">
-        <v>738</v>
+        <v>789.0540608315201</v>
       </c>
       <c r="U16" t="n">
-        <v>738</v>
+        <v>821.883895996355</v>
       </c>
       <c r="V16" t="n">
-        <v>738</v>
+        <v>821.9999999999794</v>
       </c>
       <c r="W16" t="n">
-        <v>738</v>
+        <v>819.9272246581182</v>
       </c>
       <c r="X16" t="n">
-        <v>738</v>
+        <v>740.5990865622151</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.4807598536958</v>
+        <v>737.4807598536595</v>
       </c>
     </row>
     <row r="17">
@@ -24763,7 +24763,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="C17" t="n">
         <v>780.3257817577396</v>
@@ -24817,19 +24817,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T17" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="U17" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="V17" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="W17" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="X17" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="Y17" t="n">
         <v>749.1408669101759</v>
@@ -24899,7 +24899,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U18" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V18" t="n">
         <v>788.7078867717157</v>
@@ -24978,13 +24978,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U19" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V19" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="W19" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X19" t="n">
         <v>740.5990865622442</v>
@@ -25000,7 +25000,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="C20" t="n">
         <v>780.3257817577396</v>
@@ -25054,19 +25054,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T20" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="U20" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="V20" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="W20" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="X20" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="Y20" t="n">
         <v>749.1408669101759</v>
@@ -25136,7 +25136,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U21" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V21" t="n">
         <v>788.7078867717157</v>
@@ -25215,13 +25215,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U22" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V22" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="W22" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X22" t="n">
         <v>740.5990865622442</v>
@@ -25237,7 +25237,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="C23" t="n">
         <v>780.3257817577396</v>
@@ -25291,19 +25291,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T23" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="U23" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="V23" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="W23" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="X23" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="Y23" t="n">
         <v>749.1408669101759</v>
@@ -25373,7 +25373,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U24" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V24" t="n">
         <v>788.7078867717157</v>
@@ -25452,13 +25452,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U25" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V25" t="n">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="W25" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X25" t="n">
         <v>740.5990865622442</v>
@@ -25474,10 +25474,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="C26" t="n">
-        <v>728</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D26" t="n">
         <v>720.9289116565008</v>
@@ -25492,7 +25492,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H26" t="n">
-        <v>728</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I26" t="n">
         <v>487.6029664634913</v>
@@ -25528,22 +25528,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T26" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="U26" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="V26" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="W26" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="X26" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="Y26" t="n">
-        <v>728</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="27">
@@ -25610,13 +25610,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U27" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="V27" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="W27" t="n">
-        <v>728</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X27" t="n">
         <v>675.4238557881962</v>
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C28" t="n">
         <v>696.5881007455363</v>
@@ -25686,22 +25686,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T28" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="U28" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="V28" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="W28" t="n">
-        <v>728</v>
+        <v>788.0000000000002</v>
       </c>
       <c r="X28" t="n">
-        <v>728</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y28" t="n">
-        <v>728</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="29">
@@ -25711,10 +25711,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="C29" t="n">
-        <v>728</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D29" t="n">
         <v>720.9289116565008</v>
@@ -25729,13 +25729,13 @@
         <v>709.326661363265</v>
       </c>
       <c r="H29" t="n">
-        <v>728</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I29" t="n">
-        <v>487.6029664634913</v>
+        <v>487.6029664666039</v>
       </c>
       <c r="J29" t="n">
-        <v>129.1745238424885</v>
+        <v>129.1745238436532</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -25765,22 +25765,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T29" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="U29" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="V29" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="W29" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="X29" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="Y29" t="n">
-        <v>728</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="30">
@@ -25811,7 +25811,7 @@
         <v>609.2052264934215</v>
       </c>
       <c r="I30" t="n">
-        <v>346.4072734640678</v>
+        <v>346.4072734672577</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -25838,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>235.1216554166051</v>
+        <v>235.1216554184892</v>
       </c>
       <c r="S30" t="n">
         <v>483.5002940856804</v>
@@ -25847,13 +25847,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U30" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="V30" t="n">
-        <v>728</v>
+        <v>788.0000000000754</v>
       </c>
       <c r="W30" t="n">
-        <v>728</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X30" t="n">
         <v>675.4238557881962</v>
@@ -25869,7 +25869,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C31" t="n">
         <v>696.5881007455363</v>
@@ -25890,10 +25890,10 @@
         <v>660.9207753695249</v>
       </c>
       <c r="I31" t="n">
-        <v>360.1525010149367</v>
+        <v>360.1525010168791</v>
       </c>
       <c r="J31" t="n">
-        <v>47.74164324777212</v>
+        <v>47.74164324912056</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -25914,7 +25914,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531392305</v>
       </c>
       <c r="R31" t="n">
         <v>556.9331267624116</v>
@@ -25923,22 +25923,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T31" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="U31" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="V31" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="W31" t="n">
-        <v>728</v>
+        <v>788.000000000114</v>
       </c>
       <c r="X31" t="n">
-        <v>728</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y31" t="n">
-        <v>728</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="32">
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>820</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C32" t="n">
         <v>780.3257817577396</v>
@@ -26002,19 +26002,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T32" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="U32" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="V32" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="W32" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="X32" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="Y32" t="n">
         <v>749.1408669101759</v>
@@ -26163,10 +26163,10 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U34" t="n">
-        <v>820</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V34" t="n">
-        <v>820</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W34" t="n">
         <v>819.9272246581436</v>
@@ -26185,7 +26185,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>820</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C35" t="n">
         <v>780.3257817577396</v>
@@ -26239,19 +26239,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T35" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="U35" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="V35" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="W35" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="X35" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="Y35" t="n">
         <v>749.1408669101759</v>
@@ -26400,10 +26400,10 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U37" t="n">
-        <v>820</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V37" t="n">
-        <v>820</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W37" t="n">
         <v>819.9272246581436</v>
@@ -26422,7 +26422,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>820</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C38" t="n">
         <v>780.3257817577396</v>
@@ -26476,19 +26476,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T38" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="U38" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="V38" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="W38" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="X38" t="n">
-        <v>820</v>
+        <v>833.0000000000001</v>
       </c>
       <c r="Y38" t="n">
         <v>749.1408669101759</v>
@@ -26637,10 +26637,10 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U40" t="n">
-        <v>820</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V40" t="n">
-        <v>820</v>
+        <v>832.6635966082619</v>
       </c>
       <c r="W40" t="n">
         <v>819.9272246581436</v>
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="C41" t="n">
-        <v>685</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D41" t="n">
-        <v>685</v>
+        <v>720.9289116565008</v>
       </c>
       <c r="E41" t="n">
         <v>683.4770677455434</v>
@@ -26674,10 +26674,10 @@
         <v>678.54014870429</v>
       </c>
       <c r="G41" t="n">
-        <v>685</v>
+        <v>709.326661363265</v>
       </c>
       <c r="H41" t="n">
-        <v>685</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I41" t="n">
         <v>487.6029664634913</v>
@@ -26713,22 +26713,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T41" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="U41" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="V41" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="W41" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="X41" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="Y41" t="n">
-        <v>685</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="42">
@@ -26792,16 +26792,16 @@
         <v>483.5002940856804</v>
       </c>
       <c r="T42" t="n">
-        <v>685</v>
+        <v>727.2515106360167</v>
       </c>
       <c r="U42" t="n">
-        <v>685</v>
+        <v>793.5643808391969</v>
       </c>
       <c r="V42" t="n">
-        <v>685</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W42" t="n">
-        <v>685</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X42" t="n">
         <v>675.4238557881962</v>
@@ -26817,10 +26817,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>685</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C43" t="n">
-        <v>685</v>
+        <v>696.5881007455363</v>
       </c>
       <c r="D43" t="n">
         <v>674.3412379612031</v>
@@ -26871,22 +26871,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T43" t="n">
-        <v>685</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U43" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="V43" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="W43" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="X43" t="n">
-        <v>685</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y43" t="n">
-        <v>685</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="44">
@@ -26896,25 +26896,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>685</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D44" t="n">
-        <v>685</v>
+        <v>720.9289116565009</v>
       </c>
       <c r="E44" t="n">
-        <v>683.4770677455434</v>
+        <v>683.4770677455435</v>
       </c>
       <c r="F44" t="n">
         <v>678.54014870429</v>
       </c>
       <c r="G44" t="n">
-        <v>685</v>
+        <v>709.3266613632651</v>
       </c>
       <c r="H44" t="n">
-        <v>685</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I44" t="n">
         <v>487.6029664634913</v>
@@ -26950,22 +26950,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T44" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="U44" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="V44" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="W44" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="X44" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="Y44" t="n">
-        <v>685</v>
+        <v>749.140866910176</v>
       </c>
     </row>
     <row r="45">
@@ -26981,7 +26981,7 @@
         <v>601.2969412516379</v>
       </c>
       <c r="D45" t="n">
-        <v>561.4275748088519</v>
+        <v>561.427574808852</v>
       </c>
       <c r="E45" t="n">
         <v>527.4264172844714</v>
@@ -27029,22 +27029,22 @@
         <v>483.5002940856804</v>
       </c>
       <c r="T45" t="n">
-        <v>685</v>
+        <v>727.2515106360167</v>
       </c>
       <c r="U45" t="n">
-        <v>685</v>
+        <v>793.5643808391969</v>
       </c>
       <c r="V45" t="n">
-        <v>685</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W45" t="n">
-        <v>685</v>
+        <v>771.5241640362971</v>
       </c>
       <c r="X45" t="n">
-        <v>675.4238557881962</v>
+        <v>675.4238557881963</v>
       </c>
       <c r="Y45" t="n">
-        <v>631.5508133819358</v>
+        <v>631.5508133819359</v>
       </c>
     </row>
     <row r="46">
@@ -27054,13 +27054,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>685</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C46" t="n">
-        <v>685</v>
+        <v>696.5881007455363</v>
       </c>
       <c r="D46" t="n">
-        <v>674.3412379612031</v>
+        <v>674.3412379612032</v>
       </c>
       <c r="E46" t="n">
         <v>641.2507668233993</v>
@@ -27075,7 +27075,7 @@
         <v>660.9207753695249</v>
       </c>
       <c r="I46" t="n">
-        <v>360.1525010149367</v>
+        <v>360.152501016879</v>
       </c>
       <c r="J46" t="n">
         <v>47.74164324777212</v>
@@ -27099,31 +27099,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>253.4067531368835</v>
+        <v>253.4067531392304</v>
       </c>
       <c r="R46" t="n">
         <v>556.9331267624116</v>
       </c>
       <c r="S46" t="n">
-        <v>684.8364784139557</v>
+        <v>684.8364784139558</v>
       </c>
       <c r="T46" t="n">
-        <v>685</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U46" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="V46" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="W46" t="n">
-        <v>685</v>
+        <v>794.0000000000003</v>
       </c>
       <c r="X46" t="n">
-        <v>685</v>
+        <v>740.5990865622443</v>
       </c>
       <c r="Y46" t="n">
-        <v>685</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
   </sheetData>
@@ -30916,10 +30916,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.0564392201553454</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -31150,13 +31150,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.05643922015653682</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -31390,10 +31390,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.05643922015655297</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -31624,13 +31624,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>17.12673110150409</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -31861,13 +31861,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>17.12673110164155</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -32098,13 +32098,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4.883082494503792</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -32335,13 +32335,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4.883082494503792</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32572,13 +32572,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>4.883082494503792</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>70.99999999990696</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32809,13 +32809,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>53.19774426352466</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -33043,16 +33043,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>53.19774426317631</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -33286,10 +33286,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>20.45669743156882</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -33523,10 +33523,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>20.45669743156882</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>104.9999999999998</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -33760,10 +33760,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>38.45669743156886</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>86.99999999999977</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -33994,13 +33994,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>46.83227135260091</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>98.99999999999774</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>98.99999999999774</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -34231,13 +34231,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>98.99999999999774</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>46.83227135260133</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>98.99999999999774</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -34579,10 +34579,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>17.25165683802288</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.4454592416513767</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -34816,10 +34816,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>17.25165683802288</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.4454592416525429</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -35053,10 +35053,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>17.25165683802288</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.4454592416525548</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -35290,13 +35290,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>70.25165683792989</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>53.44545924155955</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>32.26299307291231</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35527,13 +35527,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>70.25165683797329</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>53.44545924160646</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>32.26299307295676</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35764,13 +35764,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>66.25165683802288</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>49.44545924165254</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>28.2629930730053</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -36001,13 +36001,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>66.25165683802288</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>49.44545924165254</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>28.2629930730053</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -36238,13 +36238,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>66.25165683802288</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>49.44545924165254</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>28.2629930730053</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -36475,13 +36475,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>104.2516568380227</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>87.44545924165232</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>66.26299307300508</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -36712,13 +36712,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>104.2516568379089</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>87.44545924153852</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>66.26299307289128</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -36949,13 +36949,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>59.25165683802277</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>42.44545924165243</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>21.26299307300519</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -37186,13 +37186,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>59.25165683802277</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>42.44545924165243</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>21.26299307300519</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -37423,13 +37423,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>59.25165683802277</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>42.44545924165243</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>21.26299307300519</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -37660,13 +37660,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>98.25165683802254</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>81.4454592416522</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>60.26299307300496</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -37897,13 +37897,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>98.25165683802265</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>81.44545924165234</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>60.26299307300511</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
